--- a/jiedan/baidu_ocr260/用款流水登记台账模板.xlsx
+++ b/jiedan/baidu_ocr260/用款流水登记台账模板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,74 +483,1558 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>胡德先</t>
+          <t>郭浩然</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>A002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>胡德先</t>
+          <t>郭浩然</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>123456789</v>
+        <v>56465468465</v>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>161.7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9081097211692162125000019</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>9081097211696657130000042</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023年08月16日</t>
+          <t>2023年10月07日</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>胡德先</t>
+          <t>郭浩然</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A001</t>
+          <t>A002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>胡德先</t>
+          <t>郭浩然</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>123456789</v>
+        <v>56465468465</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>161.7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9081097211692162125000019</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>9081097211697448414000020</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2023年08月16日</t>
+          <t>2023年10月16日</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E4" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9081097201698025916000141</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023年10月23日</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E5" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9081097191698392249000057</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023年10月27日</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E6" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9081097201698463673000028</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023年10月28日</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E7" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9081097211699694541000025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023年11月11日</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E8" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9081097191700112827000019</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023年11月16日</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E9" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9081097211700482836000058</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023年11月20日</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E10" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9081097211700717254000022</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>17</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023年11月23日</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E11" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9081097211705124836000029</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024年01月13日</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E12" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9081097191705737653000002</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024年01月20日</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9081097201707341430000004</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>未分配结清</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024年02月08日</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E14" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9081097211709104169000080</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024年02月28日</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E15" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9081097211710724682000160</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024年03月18日</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E16" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9081097201710832836000013</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024年03月19日</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E17" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9081097191711015455000007</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024年03月21日</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E18" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9081097211711594241000058</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024年03月28日</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E19" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9081097201712646564000040</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024年04月09日</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E20" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9081097211712816572000062</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024年04月11日</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E21" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9081097191713162251000143</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024年04月15日</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E22" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9081097201713689160000027</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>19</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024年04月21日</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E23" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9081097201713787504000021</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024年04月22日</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E24" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9081097211714958072000089</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024年05月06日</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E25" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9081097211716427818000019</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024年05月23日</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>郭浩然</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>56465468465</v>
+      </c>
+      <c r="E26" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9081097201716783286000046</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024年05月27日</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E27" t="n">
+        <v>329</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9081097211693558960000055</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023年09月01日</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E28" t="n">
+        <v>329</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9081097191693789374000008</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>15</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023年09月04日</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E29" t="n">
+        <v>329</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9081097191694570468000077</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023年09月13日</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E30" t="n">
+        <v>329</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9081097191695194184000083</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023年09月20日</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E31" t="n">
+        <v>329</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9081097191695620303000044</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023年09月25日</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E32" t="n">
+        <v>329</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9081097201696557112000029</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>提前还本</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>80</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023年10月06日</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E33" t="n">
+        <v>329</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9081097211698996484000127</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>未分配结清</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E34" t="n">
+        <v>329</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9081097201699926387000110</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023年11月14日</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E35" t="n">
+        <v>329</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9081097201700015271000034</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023年11月15日</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E36" t="n">
+        <v>329</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9081097211700622844000121</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023年11月22日</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E37" t="n">
+        <v>329</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9081097191701049991000026</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>60</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023年11月27日</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E38" t="n">
+        <v>329</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9081097191704678598000117</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>额度项下提款</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>40</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2024年01月08日</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>郭星</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>654564654</v>
+      </c>
+      <c r="E39" t="n">
+        <v>329</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9081097191707446965000088</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>未分配结清</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024年02月09日</t>
         </is>
       </c>
     </row>

--- a/jiedan/baidu_ocr260/用款流水登记台账模板.xlsx
+++ b/jiedan/baidu_ocr260/用款流水登记台账模板.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,11 +496,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E2" t="n">
-        <v>161.7</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -512,8 +516,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>20</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -537,11 +543,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E3" t="n">
-        <v>161.7</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -553,8 +563,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -578,11 +590,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E4" t="n">
-        <v>161.7</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -594,8 +610,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>5</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -619,11 +637,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E5" t="n">
-        <v>161.7</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -635,8 +657,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>6</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -660,11 +684,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E6" t="n">
-        <v>161.7</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -676,8 +704,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>6.8</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -701,11 +731,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E7" t="n">
-        <v>161.7</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -717,8 +751,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -742,11 +778,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E8" t="n">
-        <v>161.7</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -758,8 +798,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>13</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -783,11 +825,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E9" t="n">
-        <v>161.7</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -799,8 +845,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>15</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -824,11 +872,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E10" t="n">
-        <v>161.7</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -840,8 +892,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>17</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -865,11 +919,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E11" t="n">
-        <v>161.7</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -881,8 +939,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>9</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -906,11 +966,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E12" t="n">
-        <v>161.7</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -922,8 +986,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>5</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -947,11 +1013,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E13" t="n">
-        <v>161.7</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -963,8 +1033,10 @@
           <t>未分配结清</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>40.8</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>40.8</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -988,11 +1060,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E14" t="n">
-        <v>161.7</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1004,8 +1080,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>15</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1029,11 +1107,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E15" t="n">
-        <v>161.7</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1045,8 +1127,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>10</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1070,11 +1154,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E16" t="n">
-        <v>161.7</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1086,8 +1174,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>15</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1111,11 +1201,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E17" t="n">
-        <v>161.7</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1127,8 +1221,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>4.9</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1152,11 +1248,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E18" t="n">
-        <v>161.7</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1168,8 +1268,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>21</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1193,11 +1295,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E19" t="n">
-        <v>161.7</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1209,8 +1315,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>5</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1234,11 +1342,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E20" t="n">
-        <v>161.7</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1250,8 +1362,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>8</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1275,11 +1389,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E21" t="n">
-        <v>161.7</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1291,8 +1409,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>5</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1316,11 +1436,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E22" t="n">
-        <v>161.7</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1332,8 +1456,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>19</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1357,11 +1483,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E23" t="n">
-        <v>161.7</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1373,8 +1503,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>10</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1398,11 +1530,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E24" t="n">
-        <v>161.7</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1414,8 +1550,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>10</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1439,11 +1577,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E25" t="n">
-        <v>161.7</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1455,8 +1597,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>6.9</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1480,11 +1624,15 @@
           <t>郭浩然</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>56465468465</v>
-      </c>
-      <c r="E26" t="n">
-        <v>161.7</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>56465468465</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1496,8 +1644,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>5</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1521,11 +1671,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E27" t="n">
-        <v>329</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1537,8 +1691,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>20</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1562,11 +1718,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E28" t="n">
-        <v>329</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1578,8 +1738,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>15</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1603,11 +1765,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E29" t="n">
-        <v>329</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1619,8 +1785,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>9.5</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1644,11 +1812,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E30" t="n">
-        <v>329</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1660,8 +1832,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>100</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1685,11 +1859,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E31" t="n">
-        <v>329</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1701,8 +1879,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>20</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1726,11 +1906,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E32" t="n">
-        <v>329</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1742,8 +1926,10 @@
           <t>提前还本</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>80</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1767,11 +1953,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E33" t="n">
-        <v>329</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1783,8 +1973,10 @@
           <t>未分配结清</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>84.5</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>84.5</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1808,11 +2000,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E34" t="n">
-        <v>329</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1824,8 +2020,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>30</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1849,11 +2047,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E35" t="n">
-        <v>329</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1865,8 +2067,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>30</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1890,11 +2094,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E36" t="n">
-        <v>329</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1906,8 +2114,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>4.5</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1931,11 +2141,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E37" t="n">
-        <v>329</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1947,8 +2161,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>60</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1972,11 +2188,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E38" t="n">
-        <v>329</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1988,8 +2208,10 @@
           <t>额度项下提款</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>40</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2013,11 +2235,15 @@
           <t>郭星</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>654564654</v>
-      </c>
-      <c r="E39" t="n">
-        <v>329</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>654564654</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2029,8 +2255,10 @@
           <t>未分配结清</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>164.5</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
